--- a/quotes.xlsx
+++ b/quotes.xlsx
@@ -469,7 +469,7 @@
         <v>5.2119</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44777.81641231479</v>
+        <v>44777.81889823646</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>44777.79620640046</v>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.3396</v>
+        <v>5.3391</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
